--- a/output/MOMENTUM/rebalance/rebalance_20250731.xlsx
+++ b/output/MOMENTUM/rebalance/rebalance_20250731.xlsx
@@ -6387,13 +6387,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03032524593086668</v>
+        <v>0.03052641328722129</v>
       </c>
       <c r="C7" t="n">
         <v>0.02073377524279328</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.009591470688073398</v>
+        <v>-0.009792638044428013</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -6471,13 +6471,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02275274629500639</v>
+        <v>0.02272445986628918</v>
       </c>
       <c r="C11" t="n">
         <v>0.02051355458169086</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.002239191713315533</v>
+        <v>-0.002210905284598327</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -6492,13 +6492,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02474160971346709</v>
+        <v>0.02470643633345619</v>
       </c>
       <c r="C12" t="n">
         <v>0.02050254354863574</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.004239066164831357</v>
+        <v>-0.004203892784820459</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6513,13 +6513,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02072088347694681</v>
+        <v>0.02068962266307015</v>
       </c>
       <c r="C13" t="n">
         <v>0.02048052148252549</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.000240361994421321</v>
+        <v>-0.0002091011805446553</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6534,13 +6534,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02382137664548766</v>
+        <v>0.02378505955184587</v>
       </c>
       <c r="C14" t="n">
         <v>0.02042546631724989</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.003395910328237776</v>
+        <v>-0.003359593234595986</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02366482821582464</v>
+        <v>0.0236301690394545</v>
       </c>
       <c r="C17" t="n">
         <v>0.02028232288753331</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.003382505328291333</v>
+        <v>-0.003347846151921189</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -6618,13 +6618,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02354436246133232</v>
+        <v>0.0235111575205322</v>
       </c>
       <c r="C18" t="n">
         <v>0.02020524565614746</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.003339116805184856</v>
+        <v>-0.003305911864384739</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -6744,13 +6744,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.02160421227937542</v>
+        <v>0.0215754788382138</v>
       </c>
       <c r="C24" t="n">
         <v>0.02002906912726552</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.001575143152109899</v>
+        <v>-0.001546409710948281</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -6786,13 +6786,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.02221911551218163</v>
+        <v>0.02218851066263334</v>
       </c>
       <c r="C26" t="n">
         <v>0.01998502499504504</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.002234090517136599</v>
+        <v>-0.002203485667588306</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6807,13 +6807,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.02346753444917528</v>
+        <v>0.02343579808354274</v>
       </c>
       <c r="C27" t="n">
         <v>0.01996300292893479</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.003504531520240491</v>
+        <v>-0.003472795154607945</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6828,13 +6828,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.02349301679740556</v>
+        <v>0.02346027679619072</v>
       </c>
       <c r="C28" t="n">
         <v>0.01994098086282455</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.003552035934581005</v>
+        <v>-0.003519295933366164</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -6849,13 +6849,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.02283047074047702</v>
+        <v>0.0227982415312642</v>
       </c>
       <c r="C29" t="n">
         <v>0.01990794776365919</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.002922522976817832</v>
+        <v>-0.002890293767605016</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6996,13 +6996,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.02216212947089822</v>
+        <v>0.02213096990108508</v>
       </c>
       <c r="C36" t="n">
         <v>0.01962166090422603</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.002540468566672182</v>
+        <v>-0.002509308996859048</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -7122,13 +7122,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.02185554778419482</v>
+        <v>0.02182495771370256</v>
       </c>
       <c r="C42" t="n">
         <v>0.0195005395406197</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.002355008243575117</v>
+        <v>-0.002324418173082855</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -7332,13 +7332,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01838116965810442</v>
+        <v>0.01835813413085109</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01838116965810442</v>
+        <v>-0.01835813413085109</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7353,13 +7353,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01776031437110452</v>
+        <v>0.01773604325680184</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01776031437110452</v>
+        <v>-0.01773604325680184</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7374,13 +7374,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.02161850141904927</v>
+        <v>0.02159146351849218</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.02161850141904927</v>
+        <v>-0.02159146351849218</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7395,13 +7395,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.02015006744485579</v>
+        <v>0.02012200840341678</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.02015006744485579</v>
+        <v>-0.02012200840341678</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7416,13 +7416,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01765686260343315</v>
+        <v>0.01763055987461576</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01765686260343315</v>
+        <v>-0.01763055987461576</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7437,13 +7437,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01837559457366113</v>
+        <v>0.01835000135084888</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01837559457366113</v>
+        <v>-0.01835000135084888</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7458,13 +7458,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.02083661838607063</v>
+        <v>0.02080557365491864</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.02083661838607063</v>
+        <v>-0.02080557365491864</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7479,13 +7479,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01848188486200372</v>
+        <v>0.01845703129535626</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.01848188486200372</v>
+        <v>-0.01845703129535626</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7500,13 +7500,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.0212499763798221</v>
+        <v>0.02121867095418868</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.0212499763798221</v>
+        <v>-0.02121867095418868</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7521,13 +7521,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.0170619111040673</v>
+        <v>0.01703712773131767</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.0170619111040673</v>
+        <v>-0.01703712773131767</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7542,13 +7542,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.02063298602059908</v>
+        <v>0.02060569657864986</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.02063298602059908</v>
+        <v>-0.02060569657864986</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7563,13 +7563,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.01868987966736193</v>
+        <v>0.01955682229695664</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.01868987966736193</v>
+        <v>-0.01955682229695664</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -7584,13 +7584,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.01884450121935061</v>
+        <v>0.01881864136084651</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.01884450121935061</v>
+        <v>-0.01881864136084651</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -7605,13 +7605,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.0211366586564591</v>
+        <v>0.02110519712931502</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.0211366586564591</v>
+        <v>-0.02110519712931502</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -7626,13 +7626,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.01751230519903297</v>
+        <v>0.01748969410585231</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.01751230519903297</v>
+        <v>-0.01748969410585231</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -7647,13 +7647,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.0199259281319519</v>
+        <v>0.01989836245275921</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.0199259281319519</v>
+        <v>-0.01989836245275921</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -7668,13 +7668,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.01634848443518753</v>
+        <v>0.0163261744369085</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.01634848443518753</v>
+        <v>-0.0163261744369085</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -7689,13 +7689,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.01915584691380243</v>
+        <v>0.01912982171308623</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.01915584691380243</v>
+        <v>-0.01912982171308623</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -7710,13 +7710,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.01813671787935996</v>
+        <v>0.0181139648919537</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.01813671787935996</v>
+        <v>-0.0181139648919537</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -7731,13 +7731,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.01889569150999535</v>
+        <v>0.01886892620417118</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.01889569150999535</v>
+        <v>-0.01886892620417118</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -7752,13 +7752,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.01629846159153004</v>
+        <v>0.01627688539595098</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.01629846159153004</v>
+        <v>-0.01627688539595098</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -7773,13 +7773,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.01752663968672181</v>
+        <v>0.01750337082602624</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.01752663968672181</v>
+        <v>-0.01750337082602624</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -7794,13 +7794,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.01986424619105779</v>
+        <v>0.01983448524074564</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.01986424619105779</v>
+        <v>-0.01983448524074564</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -7815,13 +7815,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.01887209311571496</v>
+        <v>0.01884440005187784</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.01887209311571496</v>
+        <v>-0.01884440005187784</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -7836,13 +7836,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.01776957076195817</v>
+        <v>0.01774504746520682</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.01776957076195817</v>
+        <v>-0.01774504746520682</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -7857,13 +7857,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.01779845485859863</v>
+        <v>0.01777412666915569</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.01779845485859863</v>
+        <v>-0.01777412666915569</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -7878,13 +7878,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.02099098240312951</v>
+        <v>0.02096242496263619</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.02099098240312951</v>
+        <v>-0.02096242496263619</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -7899,13 +7899,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.01789108768633832</v>
+        <v>0.01786555431724112</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.01789108768633832</v>
+        <v>-0.01786555431724112</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -7920,13 +7920,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.01691325464781062</v>
+        <v>0.01689066380414416</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.01691325464781062</v>
+        <v>-0.01689066380414416</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -7941,13 +7941,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.01875436274909136</v>
+        <v>0.01897345459631891</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.01875436274909136</v>
+        <v>-0.01897345459631891</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -7962,13 +7962,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.01749030689068006</v>
+        <v>0.01746818092548995</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.01749030689068006</v>
+        <v>-0.01746818092548995</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -7983,13 +7983,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.02173194931144189</v>
+        <v>0.02170515893558259</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.02173194931144189</v>
+        <v>-0.02170515893558259</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -8004,13 +8004,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.01766255550882185</v>
+        <v>0.01763937438399269</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.01766255550882185</v>
+        <v>-0.01763937438399269</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -8025,13 +8025,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.01852227900738582</v>
+        <v>0.01849611024341935</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.01852227900738582</v>
+        <v>-0.01849611024341935</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -8046,13 +8046,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.01820285424036459</v>
+        <v>0.01817825325560948</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.01820285424036459</v>
+        <v>-0.01817825325560948</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -8067,13 +8067,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.01565592114144222</v>
+        <v>0.01563504179679351</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.01565592114144222</v>
+        <v>-0.01563504179679351</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>

--- a/output/MOMENTUM/rebalance/rebalance_20250731.xlsx
+++ b/output/MOMENTUM/rebalance/rebalance_20250731.xlsx
@@ -6387,13 +6387,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03052641328722129</v>
+        <v>0.03028471254324464</v>
       </c>
       <c r="C7" t="n">
         <v>0.02073377524279328</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.009792638044428013</v>
+        <v>-0.009550937300451357</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -6471,13 +6471,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02272445986628918</v>
+        <v>0.02257454693487394</v>
       </c>
       <c r="C11" t="n">
         <v>0.02051355458169086</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.002210905284598327</v>
+        <v>-0.002060992353183081</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -6492,13 +6492,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02470643633345619</v>
+        <v>0.02490942197150991</v>
       </c>
       <c r="C12" t="n">
         <v>0.02050254354863574</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.004203892784820459</v>
+        <v>-0.004406878422874176</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6513,13 +6513,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02068962266307015</v>
+        <v>0.02083056332417819</v>
       </c>
       <c r="C13" t="n">
         <v>0.02048052148252549</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.0002091011805446553</v>
+        <v>-0.0003500418416527047</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6534,13 +6534,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02378505955184587</v>
+        <v>0.02307055260189892</v>
       </c>
       <c r="C14" t="n">
         <v>0.02042546631724989</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.003359593234595986</v>
+        <v>-0.002645086284649035</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0236301690394545</v>
+        <v>0.02382533710368942</v>
       </c>
       <c r="C17" t="n">
         <v>0.02028232288753331</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.003347846151921189</v>
+        <v>-0.003543014216156114</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -6618,13 +6618,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0235111575205322</v>
+        <v>0.02370405427906656</v>
       </c>
       <c r="C18" t="n">
         <v>0.02020524565614746</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.003305911864384739</v>
+        <v>-0.003498808622919097</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -6744,13 +6744,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0215754788382138</v>
+        <v>0.02082307332947805</v>
       </c>
       <c r="C24" t="n">
         <v>0.02002906912726552</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.001546409710948281</v>
+        <v>-0.0007940042022125289</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -6786,13 +6786,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.02218851066263334</v>
+        <v>0.02236981871981424</v>
       </c>
       <c r="C26" t="n">
         <v>0.01998502499504504</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.002203485667588306</v>
+        <v>-0.002384793724769206</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6807,13 +6807,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.02343579808354274</v>
+        <v>0.02334430569251321</v>
       </c>
       <c r="C27" t="n">
         <v>0.01996300292893479</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.003472795154607945</v>
+        <v>-0.003381302763578415</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6828,13 +6828,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.02346027679619072</v>
+        <v>0.02365236035842152</v>
       </c>
       <c r="C28" t="n">
         <v>0.01994098086282455</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.003519295933366164</v>
+        <v>-0.003711379495596964</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -6849,13 +6849,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.0227982415312642</v>
+        <v>0.02298532052153449</v>
       </c>
       <c r="C29" t="n">
         <v>0.01990794776365919</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.002890293767605016</v>
+        <v>-0.003077372757875299</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6996,13 +6996,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.02213096990108508</v>
+        <v>0.02177479686023989</v>
       </c>
       <c r="C36" t="n">
         <v>0.01962166090422603</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.002509308996859048</v>
+        <v>-0.002153135956013852</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -7122,13 +7122,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.02182495771370256</v>
+        <v>0.02200378506005938</v>
       </c>
       <c r="C42" t="n">
         <v>0.0195005395406197</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.002324418173082855</v>
+        <v>-0.00250324551943968</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -7332,13 +7332,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01835813413085109</v>
+        <v>0.01802247990534255</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01835813413085109</v>
+        <v>-0.01802247990534255</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7353,13 +7353,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01773604325680184</v>
+        <v>0.01788077534727711</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01773604325680184</v>
+        <v>-0.01788077534727711</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7374,13 +7374,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.02159146351849218</v>
+        <v>0.02143939446213775</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.02159146351849218</v>
+        <v>-0.02143939446213775</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7395,13 +7395,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.02012200840341678</v>
+        <v>0.02028673714245416</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.02012200840341678</v>
+        <v>-0.02028673714245416</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7416,13 +7416,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01763055987461576</v>
+        <v>0.01741966620122026</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01763055987461576</v>
+        <v>-0.01741966620122026</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7437,13 +7437,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01835000135084888</v>
+        <v>0.01850022874475983</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01835000135084888</v>
+        <v>-0.01850022874475983</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7458,13 +7458,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.02080557365491864</v>
+        <v>0.02097794467897712</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.02080557365491864</v>
+        <v>-0.02097794467897712</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7479,13 +7479,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01845703129535626</v>
+        <v>0.01860723995682166</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.01845703129535626</v>
+        <v>-0.01860723995682166</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7500,13 +7500,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.02121867095418868</v>
+        <v>0.02139410631158291</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.02121867095418868</v>
+        <v>-0.02139410631158291</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7521,13 +7521,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01703712773131767</v>
+        <v>0.0171776350954348</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.01703712773131767</v>
+        <v>-0.0171776350954348</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7542,13 +7542,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.02060569657864986</v>
+        <v>0.02077293115813789</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.02060569657864986</v>
+        <v>-0.02077293115813789</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7563,13 +7563,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.01955682229695664</v>
+        <v>0.01791620834705709</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.01955682229695664</v>
+        <v>-0.01791620834705709</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -7584,13 +7584,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.01881864136084651</v>
+        <v>0.01897231579317717</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.01881864136084651</v>
+        <v>-0.01897231579317717</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -7605,13 +7605,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.02110519712931502</v>
+        <v>0.0210420518406285</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.02110519712931502</v>
+        <v>-0.0210420518406285</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -7626,13 +7626,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.01748969410585231</v>
+        <v>0.01763108403003948</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.01748969410585231</v>
+        <v>-0.01763108403003948</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -7647,13 +7647,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.01989836245275921</v>
+        <v>0.02006107758391345</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.01989836245275921</v>
+        <v>-0.02006107758391345</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -7668,13 +7668,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.0163261744369085</v>
+        <v>0.01645936954413634</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.0163261744369085</v>
+        <v>-0.01645936954413634</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -7689,13 +7689,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.01912982171308623</v>
+        <v>0.01928577321862075</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.01912982171308623</v>
+        <v>-0.01928577321862075</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -7710,13 +7710,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.0181139648919537</v>
+        <v>0.01816727750870169</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.0181139648919537</v>
+        <v>-0.01816727750870169</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -7731,13 +7731,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.01886892620417118</v>
+        <v>0.01902385328670656</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.01886892620417118</v>
+        <v>-0.01902385328670656</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -7752,13 +7752,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.01627688539595098</v>
+        <v>0.01640900741591144</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.01627688539595098</v>
+        <v>-0.01640900741591144</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -7773,13 +7773,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.01750337082602624</v>
+        <v>0.01737779067627667</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.01750337082602624</v>
+        <v>-0.01737779067627667</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -7794,13 +7794,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.01983448524074564</v>
+        <v>0.01999897727954575</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.01983448524074564</v>
+        <v>-0.01999897727954575</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -7815,13 +7815,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.01884440005187784</v>
+        <v>0.01900009483413262</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.01884440005187784</v>
+        <v>-0.01900009483413262</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -7836,13 +7836,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.01774504746520682</v>
+        <v>0.01789009452045849</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.01774504746520682</v>
+        <v>-0.01789009452045849</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -7857,13 +7857,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.01777412666915569</v>
+        <v>0.01791917452615805</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.01777412666915569</v>
+        <v>-0.01791917452615805</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -7878,13 +7878,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.02096242496263619</v>
+        <v>0.02113335568427011</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.02096242496263619</v>
+        <v>-0.02113335568427011</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -7899,13 +7899,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.01786555431724112</v>
+        <v>0.01801243564462627</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.01786555431724112</v>
+        <v>-0.01801243564462627</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -7920,13 +7920,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.01689066380414416</v>
+        <v>0.01702797036300345</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.01689066380414416</v>
+        <v>-0.01702797036300345</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -7941,13 +7941,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.01897345459631891</v>
+        <v>0.01863528465539467</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.01897345459631891</v>
+        <v>-0.01863528465539467</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -7962,13 +7962,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.01746818092548995</v>
+        <v>0.01743405324250487</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.01746818092548995</v>
+        <v>-0.01743405324250487</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -7983,13 +7983,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.02170515893558259</v>
+        <v>0.02160589677995692</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.02170515893558259</v>
+        <v>-0.02160589677995692</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -8004,13 +8004,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.01763937438399269</v>
+        <v>0.01778235342646213</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.01763937438399269</v>
+        <v>-0.01778235342646213</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -8025,13 +8025,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.01849611024341935</v>
+        <v>0.01849428583374046</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.01849611024341935</v>
+        <v>-0.01849428583374046</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -8046,13 +8046,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.01817825325560948</v>
+        <v>0.0183263167841633</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.01817825325560948</v>
+        <v>-0.0183263167841633</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -8067,13 +8067,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.01563504179679351</v>
+        <v>0.01576210887574537</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.01563504179679351</v>
+        <v>-0.01576210887574537</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
